--- a/.Net times/.Net время.xlsx
+++ b/.Net times/.Net время.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCEA63F-2FCF-4A7A-B4C1-9E8F4BE4CE63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A2689-488F-487E-B1B6-E1B77A74B274}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="2565" windowWidth="21600" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>AngleSharpParsing</t>
-  </si>
-  <si>
-    <t>CsQueryParsing</t>
-  </si>
-  <si>
     <t>FizzlerParsing</t>
-  </si>
-  <si>
-    <t>HtmlAgilityPackParsing</t>
-  </si>
-  <si>
-    <t>RestSharpForLetyShopsParsing</t>
   </si>
   <si>
     <t>WebDriverAndFizzlerMegaBonusParsing</t>
@@ -49,6 +37,18 @@
   </si>
   <si>
     <t>Итог:</t>
+  </si>
+  <si>
+    <t>AngleSharp</t>
+  </si>
+  <si>
+    <t>CsQuery</t>
+  </si>
+  <si>
+    <t>HtmlAgilityPack</t>
+  </si>
+  <si>
+    <t>RestSharp</t>
   </si>
 </sst>
 </file>
@@ -125,14 +125,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -140,7 +139,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Время выполнения в секундах</a:t>
+              <a:t>Время парсинга</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -158,14 +157,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -186,32 +184,165 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="84000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="20000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F9FF2780-389C-4314-970F-7F73E96FDDE1}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C7EE-4A3B-AD68-E6F4E79F2EFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7EDEF4FE-B367-4588-BC4A-8E2D24F80976}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C7EE-4A3B-AD68-E6F4E79F2EFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{84D97DD4-BB54-4714-8EB3-16E9EF84C121}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C7EE-4A3B-AD68-E6F4E79F2EFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5D8BF6EA-5839-47B7-BD55-8DE58E8EDFF8}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C7EE-4A3B-AD68-E6F4E79F2EFB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -226,9 +357,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -238,7 +372,7 @@
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -251,13 +385,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -267,39 +402,33 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:f>Лист1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>AngleSharpParsing</c:v>
+                  <c:v>AngleSharp</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CsQueryParsing</c:v>
+                  <c:v>CsQuery</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>FizzlerParsing</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HtmlAgilityPackParsing</c:v>
+                  <c:v>HtmlAgilityPack</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>RestSharpForLetyShopsParsing</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>WebDriverAndFizzlerMegaBonusParsing</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>WebDriverParsing</c:v>
+                  <c:v>RestSharp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$8</c:f>
+              <c:f>Лист1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.5296000000000003</c:v>
                 </c:pt>
@@ -315,12 +444,6 @@
                 <c:pt idx="4">
                   <c:v>3.1591999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.8446</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>418.93900000000002</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -331,7 +454,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -339,7 +462,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="41"/>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-35"/>
         <c:axId val="418485104"/>
         <c:axId val="418483136"/>
       </c:barChart>
@@ -368,12 +492,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -394,12 +517,39 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="418485104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -424,26 +574,12 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="68000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-      </a:gsLst>
-      <a:lin ang="5400000" scaled="1"/>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -511,97 +647,82 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="211">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200">
-      <a:effectLst/>
-    </cs:defRPr>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="68000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr/>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -610,6 +731,25 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -618,58 +758,12 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -683,25 +777,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="84000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -710,26 +796,12 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -737,17 +809,16 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -756,250 +827,238 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr kern="1200">
-      <a:effectLst/>
-    </cs:defRPr>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1015,7 +1074,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1024,9 +1082,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1040,17 +1098,16 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1059,9 +1116,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1384,7 +1441,7 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1454,10 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <f>C2/1000</f>
+        <f t="shared" ref="B2:B8" si="0">C2/1000</f>
         <v>5.5296000000000003</v>
       </c>
       <c r="C2">
@@ -1409,10 +1466,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <f>C3/1000</f>
+        <f t="shared" si="0"/>
         <v>29.215</v>
       </c>
       <c r="C3">
@@ -1421,10 +1478,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <f>C4/1000</f>
+        <f t="shared" si="0"/>
         <v>4.0564</v>
       </c>
       <c r="C4">
@@ -1433,10 +1490,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <f>C5/1000</f>
+        <f t="shared" si="0"/>
         <v>59.804199999999994</v>
       </c>
       <c r="C5">
@@ -1445,10 +1502,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <f>C6/1000</f>
+        <f t="shared" si="0"/>
         <v>3.1591999999999998</v>
       </c>
       <c r="C6">
@@ -1457,10 +1514,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <f>C7/1000</f>
+        <f t="shared" si="0"/>
         <v>65.8446</v>
       </c>
       <c r="C7">
@@ -1469,10 +1526,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <f>C8/1000</f>
+        <f t="shared" si="0"/>
         <v>418.93900000000002</v>
       </c>
       <c r="C8">
@@ -1481,7 +1538,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>3159.2</v>
